--- a/DOWNLOADS/EDITAIS/U_989571_E_900522025_01-10-2025_09h00m/U_989571_E_900522025_01-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_989571_E_900522025_01-10-2025_09h00m/U_989571_E_900522025_01-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="134">
   <si>
     <t>Nº</t>
   </si>
@@ -406,538 +406,7 @@
     <t>Lixeira Lixeira Material: Polietileno Alta Densidade, Capacidade: 100L, Tipo: Com Tampa E Pedal Acoplados, Características Adicionais: Conforme Modelo, Cor: Branca</t>
   </si>
   <si>
-    <t>Mesa grande para reunião, na cor nogal, tampo em MDP de no mínimo 25 mm e com 2 caixas de tomadas, bordas com os cantos arredondados (NR 17), acabamento melamínico de baixa pressão BP, e pés com regulagem de altura. Peso mínimo: 88 kg. Dimensões mínimas: 380 cm de largura, 110 cm de profundidade e 73 cm de altura.</t>
-  </si>
-  <si>
-    <t>Mesa redonda de jantar em madeira e tampo em MDF, com 80 cm de altura mínima, com dimensões mínimas de diâmetro e profundidade em 160 cm e dimensões máximas de diâmetro e profundidade em 180 cm.</t>
-  </si>
-  <si>
-    <t>Mesa de escritório em L, confeccionado em madeira MDP/BP 15 mm, na cor nogal, com 2 gavetas no tamanho mínimo 35 x 3/,5 x 234 cm com puxadores em acabamento PVC, pés de aço com nivelador, acabamento em Saia PVC. Dimensões mínimas: 160 cm de largura e profundidade e 74 cm de altura.</t>
-  </si>
-  <si>
-    <t>Mesa de escritório em L, confeccionado em madeira MDP/BP 15 mm, na cor cinza, com 2 gavetas no tamanho mínimo 35 x 3/,5 x 234 cm com puxadores em acabamento PVC, pés de aço com nivelador, acabamento em Saia PVC. Dimensões mínimas: 160 cm de largura e profundidade e 74 cm de altura.</t>
-  </si>
-  <si>
-    <t>Mesa escritório 2 gavetas, na cor montana, com tampo em MDP/BP de 15 mm e perfil em PVC, pés em aço com pintura epóxi e sapata fixa, gaveteiro com 2 gavetas e chave com tranca simultânea das 2 gavetas. Dimensões mínimas: 150 cm de comprimento, 60 cm de profundidade e 75 cm de altura.</t>
-  </si>
-  <si>
-    <t>Conjunto refeitório infantil, com 1 mesa e 2 bancos com encosto, nas cores branco e azul, capacidade para 8 lugares, tampo em MDP 15 mm revestido em laminado pet, estrutura de aço 20 x 30. Peso mínimo da mesa: 15 kg. Dimensões mínimas da mesa: 150 x 60 x 58 cm. Peso mínimo do banco: 14 Kkg. Dimensões mínimas do banco: 135 x 30 x 33 cm.</t>
-  </si>
-  <si>
-    <t>Mesa refeitório 8 lugares com tampo MDP com 8 cadeiras, nas cores branco e azul, estrutura em aço com acabamento epóxi, revestimento melamínico de baixa pressão (BP), aplicado nas chapas de MDP e MDF, assento e encosto confeccionados em polipropileno (PP), no sistema de  injeção termoplástica, estrutura em aço carbono, de formato redondo, seção 7/8 mm, submetida a um pré-tratamento — antiferruginoso — de — desengraxe, estabilização, fosforização, pintura a pó pelo processo de deposição eletrostática e secagem em estufa a 250º C. Dimensões mínimas: assento em 46,5 cm de largura e 40 cm de profundidade, encosto em 43 cm de largura e 25 cm de altura, altura do assento até o chão em 44 cm, e altura total em 85 cm; mesa com 260 cm de comprimento, 70 cm de altura e 80 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Conjunto CJP-01 para professor, mesa e cadeira na cor cinza, composto por mesa com tampo em MDP ou MDF, revestido na face superior de laminado melamínico de alta pressão e na face inferior com chapa de balanceamento, painel frontal em MDP ou MDF, revestido nas duas faces em laminado melamínico de baixa pressão (BP), montado sobre estrutura tubular de aço, e por uma cadeira com estrutura em tubo de aço 20,7/mm, em chapa 14 (1,90mMm), ponteiras e sapatas em polipropileno injetados na cor cinza. Dimensões mínimas da cadeira: assento em 400 x 430 mm, encosto em 396 x 198 mm, e altura do assento ao chão em 460 mm. Dimensões mínimas da mesa: 120 cm de comprimento, 65 cm de largura e 76 cm de altura.</t>
-  </si>
-  <si>
-    <t>Berço com grades em MDF, na cor branco acetinado, acabamento em MDF/MDP, pintura atóxica, com estrado ajustável, com rodízios e suporte para mosquiteiro. Tamanho indicado para colchão: 130 x 70 cm. Peso mínimo: 26 Kkg. Dimensões: 130 cm de comprimento mínimo, 70 cm de largura mínima, sendo o espaçamento das grades laterais no máximo em 7 cm e altura mínima dos rodízios até o estrado em 5 cem.</t>
-  </si>
-  <si>
-    <t>Conjunto coletivo CJC 01, composto por uma mesa com tampo em MDP com 25 mm de espessura, revestido na face superior em laminado melamínico de alta pressão, 0,8 mm de espessura, acabamento texturizado, na cor cinza, pés confeccionados em tubo de aço carbono, laminado a frio, com 38 mm de diâmetro em chapa 16 (1,5 mm), topos encabeçados com fita de bordo em PVC com "primer", acabamento texturizado, na cor laranja, coladas com adesivo "Hot Melting", e 4 cadeiras individuais empilháveis com assento e encosto em polipropileno copolímero virgem, isento de cargas minerais, injetados, na cor amarelo, com assento e o encosto fabricados em compensado anatômico moldado a quente, contendo no mínimo sete lâminas internas, com espessura acabada do assento e encosto mínima de 9,6 mm, e estrutura em tubo de aço carbono laminado a frio, 20,7 mm de diâmetro em chapa 14 (1,9 mm). Dimensões mínimas: mesa com 46 cm de altura, tampo da mesa com 80 x 80 cm, cadeiras com altura mínima do assento ao chão em 26 cm, assento 26 x 34 cm, e encosto da cadeira 15,5 x 35 cm.</t>
-  </si>
-  <si>
-    <t>Conjunto biblioteca, nas cores branco e preto, composto por uma mesa redonda de MDF, com revestimento em laminado melamínico na cor branca, bordas em PVC tipo "T" na cor preta, estrutura em tubo redondo de 1+1/4" x 1,2mm de aço carbono com pés niveladores de rosca, com porca soldada à estrutura, pintura eletrostática a pó, e 4 cadeiras com assento e encosto anatômicos em compensado 9 mm, revestido em espuma injetada de alta densidade, com acabamento em tecido 100% poliéster, traseira do encosto em capa de polipropileno na cor preta, estruturadas em tubo redondo 7/8" x 1,06 mm de aço carbono, com pintura eletrostática em pó. Dimensões mínimas: mesa com 120 cm de diâmetro, tampo da mesa com 18 mm de espessura, e 76 cm de altura, cadeiras com 44 cm de largura, 48 cm de profundidade total, assento 44 x 38 cm, encosto 35 x 30 cm, e altura do chão ao assento de 46 cm.</t>
-  </si>
-  <si>
-    <t>Armário baixo com 2 portas, sendo 1 porta com chave (par de chaves incluso), na cor predominante cinza, confeccionado em MDP e acabamento em melamínico de baixa pressão, pés com regulagem de altura, puxadores anatômicos, 1 prateleira interna. Peso mínimo: 20 kg. Dimensões mínimas: 80 cm de largura, 72 cm de altura, 42 cm de profundidade, tampo com 15 mm de espessura.</t>
-  </si>
-  <si>
-    <t>Gaveteiro volante com 4 gavetas, sendo 1 com chave (par de chaves incluso), na cor predominante cinza, confeccionado em MDP, pés com rodízios, puxadores anatômicos. Peso mínimo: 20 kg. Dimensões mínimas: 67 cm de altura, 46.5 cm de largura, 40 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Armário alto modelo Maranello P40, com 2 portas e 2 prateleiras reguláveis, puxadores anatômicos, pés reguláveis, nas cores nogal/preto. Peso mínimo: 15 kg. Dimensões mínimas: 160 cm de altura, 80 cm de largura e 45 cm de profundidade, espessura do tampo é de 40 mm.</t>
-  </si>
-  <si>
-    <t>Estação de trabalho com capacidade para 3 pessoas, feito de MDF resistente e com design elegante na cor branca, acompanha 3 passa-fios. Dimensões mínimas: 267 cm de largura, 110 cm de altura (com 75 cm da altura da bancada e 35 cm de altura do painel) e 60 cm de profundidade (com 20 cm de profundidade do painel).</t>
-  </si>
-  <si>
-    <t>Aparador buffet Cantinho do Café com 2 portas, um nicho aberto e vão livre na parte interna, acabamento em MDP, pintura em poliéster ecológica na cor preta com 7 camadas de proteção, dobradiças metálicas, pés fixos em PVC. Dimensões mínimas: 165 cm de altura modelo, 82 cm de altura, 60 cm de largura e 32 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Mesa auxiliar escritório linha industrial, estrutura 100% em MDF, com pintura UV fosca na cor preto fosco/freijó, pés fixos e com 1 prateleira. Peso suportado da prateleira em 15kg e no tampo em 40 kg. Dimensões mínimas: 60 cm de altura, 40 cm de largura e 44 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Sofá 3 lugares modelo Vitrola, revestido em tecido sintético na cor marrom, estrutura em eucalipto 22 mm, encosto e assento com enchimento em espuma densidade 23. Peso mínimo: 38 kg. Dimensões: 175 cm de largura, sendo 148 cm de área de assento, 77 cm de altura total e 72 cm de profundidade, altura dos pés em 15 cm, altura do assento até o chão em 43 cm, altura do encosto em 39 cm.</t>
-  </si>
-  <si>
-    <t>Cadeira fixa sem braço na cor preta, no couro sintético, estrutura em aço, capacidade para até 120 kg. Dimensões mínimas do Assento: 49 cm de largura, 48 cm de profundidade e 5,4 cm de espessura. Dimensões mínimas do Encosto: 46 cm de largura, 48 cm de altura e 5.4 cm de espessura.</t>
-  </si>
-  <si>
-    <t>Cadeira de escritório giratória operacional, com encosto e apoio de braços reguláveis, assento e encosto estofados e anatômicos em espuma flexível, 5 pés com rodízios de duplo giro, giro de 360 graus do assento/encosto, mecanismo operacional do tipo contato permanente que possibilite, no mínimo, ajuste de altura do assento, ajuste de altura do encosto e ajuste de inclinação do encosto, de maneira independente entre si, revestida (encosto e assento) em tecido poliéster crepe na cor preta. Dimensões mínimas: 470 a 605 mm de altura do assento, 3/0 mm de altura do encosto, 4/0 mm (largura e profundidade) do assento, 640 mm de largura e 580 mm de profundidade.</t>
-  </si>
-  <si>
-    <t>Cadeira de escritório presidente reclinável ergonômica, na cor marrom, estrutura em madeira multilaminada, base giratória, encosto e assento preenchidos com espuma de alta densidade e revestidos em couro sintético, apoio para braços, função de ajustes de altura. Peso mínimo: 16 kg. Capacidade de peso máximo recomendado: 120 kg. Dimensões mínimas: altura mínima do encosto em 65 cm, largura mínima do assento em 50 cm, profundidade mínima do assento em 46 cm, altura máxima entre 100 a 112 cm, distância mínima entre os braços de 65 cm, altura do assento ao chão de 43 a 54 cm, largura mínima do encosto em 51 cm.</t>
-  </si>
-  <si>
-    <t>Cadeira fixa em polipropileno marrom, certificada pelo INMETRO. Dimensões mínimas: 80 cm de altura, 45 cm de altura do assento, 40 cm de largura e 50 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Cadeira de escritório presidente reclinável ergonômica, na cor preta, estrutura em madeira multilaminada, base giratória, encosto e assento preenchidos com espuma de alta densidade e revestidos em couro sintético, apoio para braços, função de ajustes de altura. Peso mínimo: 13 kg. Capacidade de peso máximo recomendado: 120 kg. Dimensões mínimas: altura do encosto em 65 cm, largura do assento em 50 cm, profundidade do assento em 46 cm, altura entre 100 a 112 cm, distância entre os braços de 65 cm, altura do assento ao chão de 43 a 54 cm, largura do encosto em 51 cm.</t>
-  </si>
-  <si>
-    <t>Longarina executiva 4 lugares, na cor preta em pintura epóxi, sem braço, espuma injetada de alta densidade revestida em couro sintético, pés com niveladores, estrutura em tubo de aço 50 x 30 mm, e peso recomendado de até 120 kg por assento. Dimensões: 42 x 40 cm de assento, 37 x 30 cm de encosto e 230 cm de largura.</t>
-  </si>
-  <si>
-    <t>Cadeira alta para refeição de bebê, portátil e fácil de desmontar, com estrutura em aço, acabamento em composição têxtil 100% PVC, assento e encosto acolchoados em plástico laminado, bandeja removível com porta-copos, apoio de pés, cinto de segurança de 5 pontos e com 2 regulagem de altura, certificada pelo Inmetro. Ideal para bebês de até 23 kg. Peso mínimo: 3 kg. Dimensões mínimas: 95 cm de altura, 70 cm de largura e 55 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Puff Pêra médio, em cores diversas, revestido em tecido sintético, com zíper discreto na base para facilitar a manutenção do enchimento feito com isopor ou espuma flocados ou misto destes. Volume para enchimento em 350 litros. Medida mínima: 100 x 80 cm (medida livre, medida de ponta a ponta do Puff) Medida comprimida: quando se senta sobre o Puff ele comprime para se formar o encosto, ficando com aproximadamente 80 cm de altura e 70 cm de largura.</t>
-  </si>
-  <si>
-    <t>Saco com flocos de isopor de 350 litros, usados para refil de Puff, com volume de enchimento de 350 litros.</t>
-  </si>
-  <si>
-    <t>Colchão de berço, em espuma com densidade 18, impermeável, antiácaro, antifungos e antialérgico, tecido poliéster e acabamento em tecido bordado com espumas de poliuretano. Dimensões: 130 cm de comprimento, 70 cm de largura e 10 cm de espessura.</t>
-  </si>
-  <si>
-    <t>Colchonete selado em espuma de poliuretano com densidade 23, na cor azul, acabamento em napa, impermeável, antiácaro e antialérgico. Dimensões mínimas: 130 cm de comprimento, 60 cm de largura e 4 cm de espessura.</t>
-  </si>
-  <si>
-    <t>Colchonete solteiro em espuma de poliuretano com densidade 20, na cor azul, acabamento em napa, impermeável, antiácaro e antifúngico. Dimensões mínimas: 180 cm de comprimento, 60 cm de largura e 4 cm de espessura.</t>
-  </si>
-  <si>
-    <t>Caminha empilhável infantil, com estrutura em alumínio, tela de fibra sintética com PVC, pés em polipropileno, de fácil montagem, sem necessidade do uso de ferramentas, com fecho em velcro para ajuste, certificação pelo INMETRO, e capacidade para uma criança de até 80 kg. Dimensões mínimas: 135 cm de altura, 132 cm de comprimento e 53 cm de largura.</t>
-  </si>
-  <si>
-    <t>Tatame de EVA antiderrapante, impermeável, atóxico, antialérgico, isolante térmico, com nível médio de impacto. Dimensões mínimas: 100 cm x 100 cm (altura e largura), e 380 mm de espessura.</t>
-  </si>
-  <si>
-    <t>Quadro branco para uso escolar, com moldura em alumínio da linha A com cantoneiras plásticas arredondadas, tampo em laminado melamínico liso branco brilhante (fórmica) com chapa de fibra de madeira de 6 mm (MDF), com 120 cm de comprimento, 90 cm de largura e espessura total de 12 mm. Acompanha kit para instalação e porta apagador.</t>
-  </si>
-  <si>
-    <t>Quadro branco para uso escolar, com moldura em alumínio da linha A com cantoneiras plásticas arredondadas, tampo em laminado melamínico liso branco brilhante (fórmica) com chapa de fibra de madeira de 6 mm (MDF), com 90 cm de comprimento, 60 cm de largura e espessura total de 12 mm. Acompanha kit para instalação e porta apagador.</t>
-  </si>
-  <si>
-    <t>Quadro branco para uso escolar, com moldura em alumínio da linha A com cantoneiras plásticas arredondadas, tampo em laminado melamínico liso branco brilhante (fórmica) com chapa de fibra de madeira de 6 mm (MDF), com 200 cm de comprimento, 120 cm de largura e espessura total de 12 mm. Acompanha kit para instalação e porta apagador.</t>
-  </si>
-  <si>
-    <t>Armário roupeiro com 16 portas em aço de alta qualidade, na cor cinza texturizado, portas com grades para circulação de ar e pitão para cadeado (que não acompanha o móvel) em tamanho mínimo de 40 cm de altura e 25 cm de largura, e dimensões mínimas totais de 190 cm de altura, 120 cm de largura e 40 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Armário de aço PA 120 na cor cinza, de 2 portas com fechadura, 4 prateleiras de aço (3 ajustáveis e 1 fixa), com capacidade de 25 kg por bandeja, nas dimensões mínimas de 198 cm de altura, 40 cm de largura e 120 cm de comprimento.</t>
-  </si>
-  <si>
-    <t>Arquivo de aço de alta qualidade, na cor cinza, 4 gavetas com maçanetas, fechadura de miolo e sistema de travamento centralizado que permite trancar todas as gavetas ao mesmo tempo. Dimensões mínimas: 133 cm de altura, 46 cm de largura e 50 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Estante biblioteca dupla face, cor cinza, com 12 prateleiras (10 removíveis e 2 fixas na base) cada uma com capacidade de até 60kg, em aço laminado, tratamento antiferruginoso das superfícies com resistência à corrosão em superfícies com tecnologia nano, livre de componentes orgânicos voláteis e metais pesados tóxicos, e pintura em tinta em pó híbrida, epóxi-poliéster, polimerizada em estufa. Dimensões mínimas: 230 cm de altura, 102 cm de largura e 55 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Cozinha completa em aço, nas cores grafite e branco, com cristaleira em vidro, puxadores em ABS metalizados, gavetas com corrediças telescópicas, pés reguláveis, portas com estampa moderna, tampo em BP. Dimensões mínimas do Paneleiro: 210 cm de altura, 70 cm de largura, 45 cm de profundidade, e peso de 28,86 kg. Dimensões mínimas do Balcão: 92 cm de altura, 105 cm de largura, 45 cm de profundidade, e peso de 23,66 kg. Dimensões mínimas do Armário Aéreo: 76 cm de altura, 105 cm de largura, 27,5 cm de profundidade, e peso de 14,91 kg. Dimensões mínimas do Armário Aéreo Horizontal: 26,2 cm de altura, 70 cm de largura, 27,5 cm de profundidade, e peso de 4,6 kg. Dimensões mínimas totais: 210 cm de altura, 245 cm de largura, 45 cm de profundidade, e peso de 70.23 kg.</t>
-  </si>
-  <si>
-    <t>Bebedouro industrial 100 litros, com 3 torneiras, 2 para água gelada e 1 para água natural, com temperatura mínima em 5º C. Revestido em aço inox com bandeja, pés antiderrapantes, reservatório em polipropileno com capacidade para 100 litros, vazão mínima da água em 30l/h, elemento filtrante incluso, refrigeração por compressor (gás ecológico R-134), potência de 350 W, e consumo de energia em 20 kWh/mês. Peso mínimo: 40 kg. Dimensões mínimas: 135 cm de altura, 70 cm de largura e 72 cm de profundidade. Voltagem 220V.</t>
-  </si>
-  <si>
-    <t>Purificador com compressor Slim, na cor preta, com temperatura média da saída de água em 8º C, vida útil do elemento filtrante em 4.000 litros, pressão da rede hidráulica de 3 a 40 MCA (29 a 392 KPA), consumo energético de 5,1000 kWh/mês, e capacidade para atender até 15 pessoas (1,000l/h de água gelada). Peso mínimo: 11 kg. Dimensões mínimas: 36 cm de altura (com 18 cm de altura com pingadeira), 27 cm de largura e 37 cm de profundidade. Voltagem: 220V.</t>
-  </si>
-  <si>
-    <t>Smart TV LED 4K UHD 55 polegadas, com HDR 10+, Wi-Fi Dual Band e Bluetooth, sistema operacional Google TV, compatível com Google Assistente e aplicativos diversos, saída de áudio digital, USB, HDMI, e potência de áudio em 2 x 10 W, consumo energético A (10,9 kWh/mês). Peso mínimo: 10 kg. Dimensões mínimas (sem base): 1.226 x 711 x 73 mm. Voltagem: 220V.</t>
-  </si>
-  <si>
-    <t>Máquina de lavar com capacidade para 12 kg, na cor branca, com abertura superior da tampa, display digital, diversos ciclos de lavagem e níveis de água, cesto em aço inox, consumo aproximado de água em 135 litros por ciclo, eficiência energética A (0,37 KWh por ciclo). Peso mínimo: 32 kg. Dimensões mínimas: 101 cm de altura, 58 cm de largura e 60 cm de profundidade. Voltagem: 220V.</t>
-  </si>
-  <si>
-    <t>Secadora de roupas, com capacidade para 11 Kg, na cor branca, alças laterais, com abertura frontal da tampa, painel digital, diversos programas de secagem e funções especiais, sistema de secagem por tombamento e pés niveladores. Peso mínimo: 33 kg. Dimensões mínimas: 84 cm de altura, 59,5 cm de largura, 55,5 cm de profundidade e 94,5 cm de profundidade com a tampa frontal aberta. Voltagem: 220V.</t>
-  </si>
-  <si>
-    <t>Máquina de lavar roupa semiautomática tanquinho, na cor branca, com capacidade para 18 kg, abertura superior da tampa, batedor no fundo, painel de controle manual, timer analógico, diversos programas de lavagem, com filtro de fiapos e dispenser de amaciante e sabão. Peso mínimo: 12,9kg. Dimensões mínimas: 97,5 cm de altura, 55,7 cm de largura e 61 cm de profundidade. Voltagem: 220V.</t>
-  </si>
-  <si>
-    <t>Desktop, na cor preta, processador Intel Core i5, 16GB de memória RAM, 512 GB de memória flash SSD, sistema operacional Windows 11 Pro. Conexões: Áudio (3.5mm), DisplayPort, HDMI, VGA, Bluetooth, Rede WiFi (Wireless), RJ-45 (Gigabit), USB v2.0, USB v3.2, USB v3.2 Tipo-C. Peso mínimo: 6 kg. Dimensões mínimas: 10 cm de largura, 27 cm de altura e 30cm de profundidade. Fonte de alimentação de 260 W. OBS.: Marca Lenovo, conforme Decreto Nº 1.569/2024.</t>
-  </si>
-  <si>
-    <t>Monitor LCD-LED 21,5 polegadas, resolução Full-HD (1920 x 1080 píxeis), base ergonômica e ajustável com funções de inclinação, articulação, elevação e giro, capacidade de elevação em 155 mm, e rotação -90º/90º, taxa de atualização em 60 Hz, taxa de contraste em 1000:1, gama de cores em 99% sRGB (16,7 milhões), tempo de resposta em 4 ms, diversas opções de conectividade. Consumo de energia 15 W/48 W. Peso mínimo: 2,9 kg. Dimensões mínimas: 19,47 x 48,/4 x 49,83 cm. Fonte de energia: AC. OBS.: Marca Lenovo, conforme Decreto Nº 1.569/2024</t>
-  </si>
-  <si>
-    <t>Impressora multifuncional laser, com tela LCD touchscreen colorido de 3,5", com funções de impressão, cópia e digitalização, tecnologia de impressão em Laser Eletrofotográfico, velocidade de impressão em até 48 PPM (páginas por minuto em A4), resolução de impressão em até 1200 x 1200 DPI (pontos por polegada), capacidade da bandeja multifuncional em 100 páginas, capacidade de saída de papel em 150 páginas, resolução de cópia em até 1200 x 600 DPI (frente e verso), resolução de digitalização óptica de até 1200 x 1200 DPI (frente e verso), cartucho de toner inicial de alto rendimento de 18.000 páginas, gramatura mínima de folha em 60 g/m², compatibilidade com diversos formatos de papel, conectividade por Ethernet e Hi-Speed USB 2.0 e por dispositivos móveis. Peso mínimo: 17 kg. Dimensões mínimas: 49,5 cm de largura, 48,5 cm de altura e 42,7 cm de profundidade. Voltagem: AC 120V  50/60Hz.</t>
-  </si>
-  <si>
-    <t>Scanner portátil de documentos, com ciclo de trabalho diário de até 100 folhas, compatível com folhas de gramatura de 35 g/m² a 270 g/m² (folha única), velocidade de digitalização de até 15 PPM (A4 cores e mono a 300 DPI de resolução), modos de digitalização Simplex, resolução óptica de até 600 x 600 DPI (dispositivo), 1200 x 1200 DPI (driver), velocidade máxima de digitalização de até 15 PPM a 300 DPI, profundidade de tons de cinza de 256 níveis (8 bits), processamento de cores de 48 bits (entrada) e de cores de 24 bits (saída), ajuste de nível de escala de cinza e de preto &amp; branco, ajuste do tom da cor, remoção de cor, realce das bordas, remoção de furos, correção de caracteres, correção de documentos, alinhamento automático, detecção do fim da página, rotação automática de imagem, processamento do segundo plano, preenchimento da borda, detecção automática de cores, ignorar página em branco, configuração da margem, digitalização contínua e 2 em 1, e funções Digitalizar para, Digitalizar para E-mail, Digitalizar para OCR, Digitalizar para Arquivo, Digitalizar para Imagem. Fonte de alimentação via USB, display em LED. Consumo de energia de 0,12 W desligado, 3,3 W pronto, 27 W digitalização e 1,4 W suspensão. Peso mínimo: 0,47 kg. Dimensões mínimas: 30,1 cm de largura, 5 cm de altura e 3,6 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Projetor para sala de reunião, com tecnologia 3LCD, brilho de 4.000 Lúmens, resolução WUXGA de 1920 x 1200 píxeis, contraste de até 16.000:1, modo de projeção frontal, posterior e teto, razão de aspecto 16:9, vida útil da lâmpada (230W UHE) de até 12.000 horas (modo ECO), painel LCD de 0,61 polegada (C2fine), zoom óptico (manual) / foco (manual), número F 1,51-1,91, tamanho da tela de 30" a 300" (0,87 m - 14,41 m), distância focal 18,2 mm - 29,2 mm, razão de zoom 1 - 1,6, tampa da lente, entrada para computador x 1 D-sub15 pin, RCA Vídeo Ih Amarelo x 1, HDMI x 2, entrada de áudio RCA (Branco x1, Vermelho x1), USB-A (para módulo wireless), USB-B (para atualização de Firmware), módulo wireless integrado, alto-falante mono 16W x 1, ruído do ventilador 28 dB / 37 dB. Peso mínimo: 6 kg. Dimensões mínimas: 30,9 cm de largura, 90 cm de altura e 28,2 cm de profundidade. Voltagem: 220V.</t>
-  </si>
-  <si>
-    <t>Antena, com processador mais rápido para melhor desempenho, suporte de montagem com inclinação mecânica integrada, oferece 20 graus de inclinação para cima e até 20 graus para baixo, montagem rápida com redução no número de fixadores para simplificar a instalação, alimentação da antena pode ser destacada facilmente, fixadores GEOMET revestidos para maior resistência à corrosão, prato e suportes de aço zincado com revestimento em pó para superior resistência à corrosão, suporte de pólo redesenhado para o prato e arruelas fender melhorados para evitar remoção da pintura e aumentar a resistência à corrosão. Processador Atheros MIPS 74KC, 560 MHz, SDRAM de 64 MB DDR2, 8 MB Flash, Networking Interface (1) 10/100/1000 Ethernet Port, aprovações sem fio FCC, IC, CE, RoHS Compliance, LED's (1) Power, (1) LAN, (4) WLAN, pólo Kit de montagem incluído, canais 5/8/10/20/380/40 MHz, polarização dupla linear, ganho de 25 dBi, software ajustável para corresponder a níveis personalizados, fonte de alimentação (incluído) 24V, 0.5A Giga POE, consumo de energia 8W. Peso mínimo: 1,7 kg. Dimensões: 420 x 420 x 275 mm.</t>
-  </si>
-  <si>
-    <t>Espelho retangular grande para fixar na parede, lapidado, sem moldura, com as dimensões mínimas de 100 cm de altura, 40cm de largura e 3mm de espessura.</t>
-  </si>
-  <si>
-    <t>Lixeira redonda de pedal em aço inox, com capacidade para 50 litros e suporte interno para fixação do saco de lixo, nas medidas mínimas em 30 x 60 cm.</t>
-  </si>
-  <si>
-    <t>Lixeira com capacidade para 100 litros, na cor branca, abertura da tampa por pedal plástico, fabricado em Polietileno de Alta Densidade (PEAD) ou Polipropileno (PP), material de alta qualidade e tecnologia, respeitando as principais normas vigentes da Agência Nacional de Vigilância Sanitária (ANVISA), leve (7,8 kg), atóxica e de fácil limpeza, fica 100% vedada quando a tampa está fechada, haste localizada na parte externa para evitar o acúmulo de resíduos. Dimensões mínimas: 425 mm de largura, 595 mm de comprimento e 925 mm de altura.</t>
-  </si>
-  <si>
-    <t>Conjunto refeitório infantil, com 1 mesa e 2 bancos com encosto, nas cores branco e azul, capacidade para 8 lugares, tampo em MDP 15 mm revestido em laminado pet, estrutura de aço 20 x 30. Peso mínimo da mesa: 15 kg. Dimensões mínimas da mesa: 150 x 60 x 58 cm. Peso mínimo do banco: 14 kg. Dimensões mínimas do banco: 135 x 30 x 33 cm.</t>
-  </si>
-  <si>
-    <t>Mesa refeitório 8 lugares com tampo MDP com 8 cadeiras, nas cores branco e azul, estrutura em aço com acabamento epóxi, revestimento melamínico de baixa pressão (BP), aplicado nas chapas de MDP e MDF, assento e encosto confeccionados em polipropileno (PP), no sistema de injeção termoplástica, estrutura em aço carbono, de formato redondo, seção 7/8 mm, submetida a um pré-tratamento — antiferruginoso — de — desengraxe, estabilização, fosforização, pintura a pó pelo processo de deposição eletrostática e secagem em estufa a 250º C. Dimensões mínimas: assento em 46,5 cm de largura e 40 cm de profundidade, encosto em 43 cm de largura e 25 cm de altura, altura do assento até o chão em 44 cm, e altura total em 85 cm; mesa com 260 cm de comprimento, 70 cm de altura e 80 cm de profundidade.</t>
-  </si>
-  <si>
-    <t>Conjunto CJP-01 para professor, mesa e cadeira na cor cinza, composto por mesa com tampo em MDP ou MDF, revestido na face superior de laminado melamínico</t>
-  </si>
-  <si>
-    <t>2495,00</t>
-  </si>
-  <si>
-    <t>3053,47</t>
-  </si>
-  <si>
-    <t>839,10</t>
-  </si>
-  <si>
-    <t>614,24</t>
-  </si>
-  <si>
-    <t>429,29</t>
-  </si>
-  <si>
-    <t>1266,84</t>
-  </si>
-  <si>
-    <t>1625,00</t>
-  </si>
-  <si>
-    <t>897,75</t>
-  </si>
-  <si>
-    <t>396,40</t>
-  </si>
-  <si>
-    <t>1154,42</t>
-  </si>
-  <si>
-    <t>1835,00</t>
-  </si>
-  <si>
-    <t>480,81</t>
-  </si>
-  <si>
-    <t>518,50</t>
-  </si>
-  <si>
-    <t>760,32</t>
-  </si>
-  <si>
-    <t>1206,54</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>199,90</t>
-  </si>
-  <si>
-    <t>1011,78</t>
-  </si>
-  <si>
-    <t>399,84</t>
-  </si>
-  <si>
-    <t>805,50</t>
-  </si>
-  <si>
-    <t>455,44</t>
-  </si>
-  <si>
-    <t>252,41</t>
-  </si>
-  <si>
-    <t>438,46</t>
-  </si>
-  <si>
-    <t>635,01</t>
-  </si>
-  <si>
-    <t>296,80</t>
-  </si>
-  <si>
-    <t>194,95</t>
-  </si>
-  <si>
-    <t>88,15</t>
-  </si>
-  <si>
-    <t>88,37</t>
-  </si>
-  <si>
-    <t>67,17</t>
-  </si>
-  <si>
-    <t>147,29</t>
-  </si>
-  <si>
-    <t>215,04</t>
-  </si>
-  <si>
-    <t>88,09</t>
-  </si>
-  <si>
-    <t>149,45</t>
-  </si>
-  <si>
-    <t>55,91</t>
-  </si>
-  <si>
-    <t>241,23</t>
-  </si>
-  <si>
-    <t>1019,90</t>
-  </si>
-  <si>
-    <t>954,90</t>
-  </si>
-  <si>
-    <t>639,50</t>
-  </si>
-  <si>
-    <t>1899,98</t>
-  </si>
-  <si>
-    <t>1426,16</t>
-  </si>
-  <si>
-    <t>2589,00</t>
-  </si>
-  <si>
-    <t>1259,76</t>
-  </si>
-  <si>
-    <t>2140,92</t>
-  </si>
-  <si>
-    <t>1632,67</t>
-  </si>
-  <si>
-    <t>2269,55</t>
-  </si>
-  <si>
-    <t>634,00</t>
-  </si>
-  <si>
-    <t>4295,00</t>
-  </si>
-  <si>
-    <t>967,12</t>
-  </si>
-  <si>
-    <t>4852,02</t>
-  </si>
-  <si>
-    <t>1159,45</t>
-  </si>
-  <si>
-    <t>7885,69</t>
-  </si>
-  <si>
-    <t>895,40</t>
-  </si>
-  <si>
-    <t>200,25</t>
-  </si>
-  <si>
-    <t>312,62</t>
-  </si>
-  <si>
-    <t>229,50</t>
-  </si>
-  <si>
-    <t>32435,00</t>
-  </si>
-  <si>
-    <t>9160,41</t>
-  </si>
-  <si>
-    <t>10069,20</t>
-  </si>
-  <si>
-    <t>6756,64</t>
-  </si>
-  <si>
-    <t>33913,91</t>
-  </si>
-  <si>
-    <t>105147,72</t>
-  </si>
-  <si>
-    <t>224250,00</t>
-  </si>
-  <si>
-    <t>150822,00</t>
-  </si>
-  <si>
-    <t>22198,40</t>
-  </si>
-  <si>
-    <t>11544,20</t>
-  </si>
-  <si>
-    <t>55050,00</t>
-  </si>
-  <si>
-    <t>3846,48</t>
-  </si>
-  <si>
-    <t>3111,00</t>
-  </si>
-  <si>
-    <t>9884,16</t>
-  </si>
-  <si>
-    <t>4826,16</t>
-  </si>
-  <si>
-    <t>5058,90</t>
-  </si>
-  <si>
-    <t>80767,68</t>
-  </si>
-  <si>
-    <t>80550,00</t>
-  </si>
-  <si>
-    <t>5465,28</t>
-  </si>
-  <si>
-    <t>7572,30</t>
-  </si>
-  <si>
-    <t>876,92</t>
-  </si>
-  <si>
-    <t>17780,28</t>
-  </si>
-  <si>
-    <t>111300,00</t>
-  </si>
-  <si>
-    <t>6823,25</t>
-  </si>
-  <si>
-    <t>3085,25</t>
-  </si>
-  <si>
-    <t>4948,72</t>
-  </si>
-  <si>
-    <t>47019,00</t>
-  </si>
-  <si>
-    <t>29458,00</t>
-  </si>
-  <si>
-    <t>112896,00</t>
-  </si>
-  <si>
-    <t>45806,80</t>
-  </si>
-  <si>
-    <t>9415,35</t>
-  </si>
-  <si>
-    <t>1845,03</t>
-  </si>
-  <si>
-    <t>32324,82</t>
-  </si>
-  <si>
-    <t>18358,20</t>
-  </si>
-  <si>
-    <t>288379,80</t>
-  </si>
-  <si>
-    <t>40288,50</t>
-  </si>
-  <si>
-    <t>81699,14</t>
-  </si>
-  <si>
-    <t>165696,00</t>
-  </si>
-  <si>
-    <t>18896,40</t>
-  </si>
-  <si>
-    <t>38536,56</t>
-  </si>
-  <si>
-    <t>11428,69</t>
-  </si>
-  <si>
-    <t>15886,85</t>
-  </si>
-  <si>
-    <t>7608,00</t>
-  </si>
-  <si>
-    <t>146030,00</t>
-  </si>
-  <si>
-    <t>43520,40</t>
-  </si>
-  <si>
-    <t>106744,44</t>
-  </si>
-  <si>
-    <t>394284,50</t>
-  </si>
-  <si>
-    <t>21489,60</t>
-  </si>
-  <si>
-    <t>1001,25</t>
-  </si>
-  <si>
-    <t>80030,72</t>
-  </si>
-  <si>
-    <t>3901,50</t>
-  </si>
-  <si>
-    <t>34204,68</t>
-  </si>
-  <si>
-    <t>73125,00</t>
-  </si>
-  <si>
-    <t>49376,25</t>
-  </si>
-  <si>
-    <t>5997,60</t>
-  </si>
-  <si>
-    <t>6444,00</t>
-  </si>
-  <si>
-    <t>37100,00</t>
-  </si>
-  <si>
-    <t>37632,00</t>
-  </si>
-  <si>
-    <t>76392,00</t>
-  </si>
-  <si>
-    <t>13299,86</t>
-  </si>
-  <si>
-    <t>54369,00</t>
-  </si>
-  <si>
-    <t>47245,00</t>
-  </si>
-  <si>
-    <t>33964,14</t>
-  </si>
-  <si>
-    <t>78856,90</t>
-  </si>
-  <si>
-    <t>5939,78</t>
+    <t>IA FALHOU EM RETORNAR Nº</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1352,20 +821,20 @@
       <c r="D2">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
+      <c r="E2">
+        <v>2495</v>
+      </c>
+      <c r="F2">
+        <v>32435</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1376,25 +845,25 @@
         <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" t="s">
-        <v>244</v>
+      <c r="E3">
+        <v>3053.47</v>
+      </c>
+      <c r="F3">
+        <v>9160.41</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1405,25 +874,22 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>245</v>
+      <c r="F4">
+        <v>10069.2</v>
       </c>
       <c r="G4" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1434,25 +900,25 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" t="s">
-        <v>246</v>
+      <c r="E5">
+        <v>614.24</v>
+      </c>
+      <c r="F5">
+        <v>6756.64</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1463,25 +929,25 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" t="s">
-        <v>247</v>
+      <c r="E6">
+        <v>429.29</v>
+      </c>
+      <c r="F6">
+        <v>33913.91</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1492,25 +958,25 @@
         <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" t="s">
-        <v>248</v>
+      <c r="E7">
+        <v>1266.84</v>
+      </c>
+      <c r="F7">
+        <v>105147.72</v>
       </c>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1521,25 +987,22 @@
         <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>138</v>
       </c>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s">
-        <v>249</v>
+      <c r="F8">
+        <v>224250</v>
       </c>
       <c r="G8" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1550,25 +1013,22 @@
         <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>168</v>
       </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s">
-        <v>250</v>
+      <c r="F9">
+        <v>150822</v>
       </c>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1579,25 +1039,22 @@
         <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" t="s">
-        <v>251</v>
+      <c r="F10">
+        <v>22198.4</v>
       </c>
       <c r="G10" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1608,25 +1065,22 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" t="s">
-        <v>252</v>
+      <c r="F11">
+        <v>11544.2</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1637,25 +1091,22 @@
         <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" t="s">
-        <v>253</v>
+      <c r="F12">
+        <v>55050</v>
       </c>
       <c r="G12" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1666,25 +1117,22 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" t="s">
-        <v>254</v>
+      <c r="F13">
+        <v>3846.48</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1695,25 +1143,22 @@
         <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" t="s">
-        <v>255</v>
+      <c r="F14">
+        <v>3111</v>
       </c>
       <c r="G14" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1724,25 +1169,25 @@
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" t="s">
-        <v>256</v>
+      <c r="E15">
+        <v>760.3199999999999</v>
+      </c>
+      <c r="F15">
+        <v>9884.16</v>
       </c>
       <c r="G15" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1753,25 +1198,22 @@
         <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" t="s">
-        <v>257</v>
+      <c r="F16">
+        <v>4826.16</v>
       </c>
       <c r="G16" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1782,25 +1224,25 @@
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" t="s">
-        <v>203</v>
+      <c r="E17">
+        <v>216</v>
+      </c>
+      <c r="F17">
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1811,25 +1253,25 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" t="s">
-        <v>204</v>
+      <c r="E18">
+        <v>199.9</v>
+      </c>
+      <c r="F18">
+        <v>199.9</v>
       </c>
       <c r="G18" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1840,25 +1282,25 @@
         <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" t="s">
-        <v>258</v>
+      <c r="E19">
+        <v>1011.78</v>
+      </c>
+      <c r="F19">
+        <v>5058.9</v>
       </c>
       <c r="G19" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1869,25 +1311,22 @@
         <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D20">
         <v>202</v>
       </c>
-      <c r="E20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" t="s">
-        <v>259</v>
+      <c r="F20">
+        <v>80767.67999999999</v>
       </c>
       <c r="G20" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1898,25 +1337,22 @@
         <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
-      <c r="E21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" t="s">
-        <v>260</v>
+      <c r="F21">
+        <v>80550</v>
       </c>
       <c r="G21" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I21" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1927,25 +1363,22 @@
         <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" t="s">
-        <v>261</v>
+      <c r="F22">
+        <v>5465.28</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I22" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1956,25 +1389,22 @@
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" t="s">
-        <v>262</v>
+      <c r="F23">
+        <v>7572.3</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1985,25 +1415,22 @@
         <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" t="s">
-        <v>263</v>
+      <c r="F24">
+        <v>876.92</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2014,25 +1441,22 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D25">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" t="s">
-        <v>264</v>
+      <c r="F25">
+        <v>17780.28</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2043,25 +1467,25 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D26">
         <v>375</v>
       </c>
-      <c r="E26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F26" t="s">
-        <v>265</v>
+      <c r="E26">
+        <v>296.8</v>
+      </c>
+      <c r="F26">
+        <v>111300</v>
       </c>
       <c r="G26" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2072,25 +1496,25 @@
         <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D27">
         <v>35</v>
       </c>
-      <c r="E27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F27" t="s">
-        <v>266</v>
+      <c r="E27">
+        <v>194.95</v>
+      </c>
+      <c r="F27">
+        <v>6823.25</v>
       </c>
       <c r="G27" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2101,25 +1525,25 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D28">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" t="s">
-        <v>267</v>
+      <c r="E28">
+        <v>88.15000000000001</v>
+      </c>
+      <c r="F28">
+        <v>3085.25</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2130,25 +1554,22 @@
         <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>56</v>
       </c>
-      <c r="E29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" t="s">
-        <v>268</v>
+      <c r="F29">
+        <v>4948.72</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2159,25 +1580,22 @@
         <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D30">
         <v>700</v>
       </c>
-      <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" t="s">
-        <v>269</v>
+      <c r="F30">
+        <v>47019</v>
       </c>
       <c r="G30" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2188,25 +1606,22 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <v>200</v>
       </c>
-      <c r="E31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" t="s">
-        <v>270</v>
+      <c r="F31">
+        <v>29458</v>
       </c>
       <c r="G31" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2217,25 +1632,25 @@
         <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D32">
         <v>525</v>
       </c>
-      <c r="E32" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" t="s">
-        <v>271</v>
+      <c r="E32">
+        <v>215.04</v>
+      </c>
+      <c r="F32">
+        <v>112896</v>
       </c>
       <c r="G32" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2246,25 +1661,22 @@
         <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D33">
         <v>520</v>
       </c>
-      <c r="E33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" t="s">
-        <v>272</v>
+      <c r="F33">
+        <v>45806.8</v>
       </c>
       <c r="G33" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I33" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2275,25 +1687,25 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D34">
         <v>63</v>
       </c>
-      <c r="E34" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" t="s">
-        <v>273</v>
+      <c r="E34">
+        <v>149.45</v>
+      </c>
+      <c r="F34">
+        <v>9415.35</v>
       </c>
       <c r="G34" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2304,25 +1716,25 @@
         <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D35">
         <v>33</v>
       </c>
-      <c r="E35" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" t="s">
-        <v>274</v>
+      <c r="E35">
+        <v>55.91</v>
+      </c>
+      <c r="F35">
+        <v>1845.03</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2333,25 +1745,22 @@
         <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D36">
         <v>134</v>
       </c>
-      <c r="E36" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" t="s">
-        <v>275</v>
+      <c r="F36">
+        <v>32324.82</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2362,25 +1771,22 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D37">
         <v>18</v>
       </c>
-      <c r="E37" t="s">
-        <v>223</v>
-      </c>
-      <c r="F37" t="s">
-        <v>276</v>
+      <c r="F37">
+        <v>18358.2</v>
       </c>
       <c r="G37" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2391,25 +1797,22 @@
         <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D38">
         <v>302</v>
       </c>
-      <c r="E38" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" t="s">
-        <v>277</v>
+      <c r="F38">
+        <v>288379.8</v>
       </c>
       <c r="G38" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2420,25 +1823,25 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D39">
         <v>63</v>
       </c>
-      <c r="E39" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" t="s">
-        <v>278</v>
+      <c r="E39">
+        <v>639.5</v>
+      </c>
+      <c r="F39">
+        <v>40288.5</v>
       </c>
       <c r="G39" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2449,25 +1852,25 @@
         <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="D40">
         <v>43</v>
       </c>
-      <c r="E40" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" t="s">
-        <v>279</v>
+      <c r="E40">
+        <v>1899.98</v>
+      </c>
+      <c r="F40">
+        <v>81699.14</v>
       </c>
       <c r="G40" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H40" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2478,25 +1881,25 @@
         <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" t="s">
-        <v>227</v>
+      <c r="E41">
+        <v>1426.16</v>
+      </c>
+      <c r="F41">
+        <v>1426.16</v>
       </c>
       <c r="G41" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H41" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2507,25 +1910,22 @@
         <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>64</v>
       </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" t="s">
-        <v>280</v>
+      <c r="F42">
+        <v>165696</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2536,25 +1936,25 @@
         <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" t="s">
-        <v>281</v>
+      <c r="E43">
+        <v>1259.76</v>
+      </c>
+      <c r="F43">
+        <v>18896.4</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H43" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2565,25 +1965,22 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D44">
         <v>18</v>
       </c>
-      <c r="E44" t="s">
-        <v>230</v>
-      </c>
-      <c r="F44" t="s">
-        <v>282</v>
+      <c r="F44">
+        <v>38536.56</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2594,25 +1991,25 @@
         <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="D45">
         <v>7</v>
       </c>
-      <c r="E45" t="s">
-        <v>231</v>
-      </c>
-      <c r="F45" t="s">
-        <v>283</v>
+      <c r="E45">
+        <v>1632.67</v>
+      </c>
+      <c r="F45">
+        <v>11428.69</v>
       </c>
       <c r="G45" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2623,25 +2020,25 @@
         <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" t="s">
-        <v>284</v>
+      <c r="E46">
+        <v>2269.55</v>
+      </c>
+      <c r="F46">
+        <v>15886.85</v>
       </c>
       <c r="G46" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2652,25 +2049,22 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D47">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" t="s">
-        <v>285</v>
+      <c r="F47">
+        <v>7608</v>
       </c>
       <c r="G47" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2681,25 +2075,22 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="D48">
         <v>34</v>
       </c>
-      <c r="E48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" t="s">
-        <v>286</v>
+      <c r="F48">
+        <v>146030</v>
       </c>
       <c r="G48" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I48" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2710,25 +2101,25 @@
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D49">
         <v>45</v>
       </c>
-      <c r="E49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F49" t="s">
-        <v>287</v>
+      <c r="E49">
+        <v>967.12</v>
+      </c>
+      <c r="F49">
+        <v>43520.4</v>
       </c>
       <c r="G49" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2739,25 +2130,22 @@
         <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D50">
         <v>22</v>
       </c>
-      <c r="E50" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" t="s">
-        <v>288</v>
+      <c r="F50">
+        <v>106744.44</v>
       </c>
       <c r="G50" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2768,25 +2156,25 @@
         <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" t="s">
-        <v>237</v>
+      <c r="E51">
+        <v>1159.45</v>
+      </c>
+      <c r="F51">
+        <v>1159.45</v>
       </c>
       <c r="G51" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2797,25 +2185,22 @@
         <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="D52">
         <v>50</v>
       </c>
-      <c r="E52" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" t="s">
-        <v>289</v>
+      <c r="F52">
+        <v>394284.5</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2826,25 +2211,22 @@
         <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="D53">
         <v>24</v>
       </c>
-      <c r="E53" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" t="s">
-        <v>290</v>
+      <c r="F53">
+        <v>21489.6</v>
       </c>
       <c r="G53" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I53" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2855,25 +2237,25 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" t="s">
-        <v>291</v>
+      <c r="E54">
+        <v>200.25</v>
+      </c>
+      <c r="F54">
+        <v>1001.25</v>
       </c>
       <c r="G54" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I54" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2884,25 +2266,22 @@
         <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D55">
         <v>256</v>
       </c>
-      <c r="E55" t="s">
-        <v>241</v>
-      </c>
-      <c r="F55" t="s">
-        <v>292</v>
+      <c r="F55">
+        <v>80030.72</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H55" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I55" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2913,25 +2292,25 @@
         <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" t="s">
-        <v>293</v>
+      <c r="E56">
+        <v>229.5</v>
+      </c>
+      <c r="F56">
+        <v>3901.5</v>
       </c>
       <c r="G56" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I56" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2942,25 +2321,25 @@
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D57">
         <v>27</v>
       </c>
-      <c r="E57" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" t="s">
-        <v>294</v>
+      <c r="E57">
+        <v>1266.84</v>
+      </c>
+      <c r="F57">
+        <v>34204.68</v>
       </c>
       <c r="G57" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I57" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2971,25 +2350,25 @@
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D58">
         <v>45</v>
       </c>
-      <c r="E58" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" t="s">
-        <v>295</v>
+      <c r="E58">
+        <v>1625</v>
+      </c>
+      <c r="F58">
+        <v>73125</v>
       </c>
       <c r="G58" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3000,25 +2379,25 @@
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="D59">
         <v>55</v>
       </c>
-      <c r="E59" t="s">
-        <v>195</v>
-      </c>
-      <c r="F59" t="s">
-        <v>296</v>
+      <c r="E59">
+        <v>897.75</v>
+      </c>
+      <c r="F59">
+        <v>49376.25</v>
       </c>
       <c r="G59" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I59" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3028,23 +2407,26 @@
       <c r="B60" t="s">
         <v>95</v>
       </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
       <c r="D60">
         <v>15</v>
       </c>
-      <c r="E60" t="s">
-        <v>206</v>
-      </c>
-      <c r="F60" t="s">
-        <v>297</v>
+      <c r="E60">
+        <v>399.84</v>
+      </c>
+      <c r="F60">
+        <v>5997.6</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H60" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I60" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3054,23 +2436,23 @@
       <c r="B61" t="s">
         <v>96</v>
       </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
       <c r="D61">
         <v>8</v>
       </c>
-      <c r="E61" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" t="s">
-        <v>298</v>
+      <c r="F61">
+        <v>6444</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H61" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I61" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3080,23 +2462,26 @@
       <c r="B62" t="s">
         <v>100</v>
       </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
       <c r="D62">
         <v>125</v>
       </c>
-      <c r="E62" t="s">
-        <v>212</v>
-      </c>
-      <c r="F62" t="s">
-        <v>299</v>
+      <c r="E62">
+        <v>296.8</v>
+      </c>
+      <c r="F62">
+        <v>37100</v>
       </c>
       <c r="G62" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I62" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3106,23 +2491,26 @@
       <c r="B63" t="s">
         <v>105</v>
       </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
       <c r="D63">
         <v>175</v>
       </c>
-      <c r="E63" t="s">
-        <v>218</v>
-      </c>
-      <c r="F63" t="s">
-        <v>300</v>
+      <c r="E63">
+        <v>215.04</v>
+      </c>
+      <c r="F63">
+        <v>37632</v>
       </c>
       <c r="G63" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H63" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I63" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3132,23 +2520,23 @@
       <c r="B64" t="s">
         <v>111</v>
       </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
       <c r="D64">
         <v>80</v>
       </c>
-      <c r="E64" t="s">
-        <v>224</v>
-      </c>
-      <c r="F64" t="s">
-        <v>301</v>
+      <c r="F64">
+        <v>76392</v>
       </c>
       <c r="G64" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I64" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3158,23 +2546,26 @@
       <c r="B65" t="s">
         <v>113</v>
       </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
       <c r="D65">
         <v>7</v>
       </c>
-      <c r="E65" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" t="s">
-        <v>302</v>
+      <c r="E65">
+        <v>1899.98</v>
+      </c>
+      <c r="F65">
+        <v>13299.86</v>
       </c>
       <c r="G65" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H65" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I65" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3184,23 +2575,26 @@
       <c r="B66" t="s">
         <v>115</v>
       </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
       <c r="D66">
         <v>21</v>
       </c>
-      <c r="E66" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" t="s">
-        <v>303</v>
+      <c r="E66">
+        <v>2589</v>
+      </c>
+      <c r="F66">
+        <v>54369</v>
       </c>
       <c r="G66" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H66" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I66" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3210,23 +2604,26 @@
       <c r="B67" t="s">
         <v>121</v>
       </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
       <c r="D67">
         <v>11</v>
       </c>
-      <c r="E67" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" t="s">
-        <v>304</v>
+      <c r="E67">
+        <v>4295</v>
+      </c>
+      <c r="F67">
+        <v>47245</v>
       </c>
       <c r="G67" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I67" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3236,23 +2633,26 @@
       <c r="B68" t="s">
         <v>123</v>
       </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
       <c r="D68">
         <v>7</v>
       </c>
-      <c r="E68" t="s">
-        <v>236</v>
-      </c>
-      <c r="F68" t="s">
-        <v>305</v>
+      <c r="E68">
+        <v>4852.02</v>
+      </c>
+      <c r="F68">
+        <v>33964.14</v>
       </c>
       <c r="G68" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H68" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I68" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3262,23 +2662,23 @@
       <c r="B69" t="s">
         <v>125</v>
       </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
       <c r="D69">
         <v>10</v>
       </c>
-      <c r="E69" t="s">
-        <v>238</v>
-      </c>
-      <c r="F69" t="s">
-        <v>306</v>
+      <c r="F69">
+        <v>78856.89999999999</v>
       </c>
       <c r="G69" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I69" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3288,23 +2688,26 @@
       <c r="B70" t="s">
         <v>128</v>
       </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
       <c r="D70">
         <v>19</v>
       </c>
-      <c r="E70" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" t="s">
-        <v>307</v>
+      <c r="E70">
+        <v>312.62</v>
+      </c>
+      <c r="F70">
+        <v>5939.78</v>
       </c>
       <c r="G70" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="H70" t="s">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="I70" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
